--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N2">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O2">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P2">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q2">
-        <v>17.87292663947555</v>
+        <v>50.11717537566499</v>
       </c>
       <c r="R2">
-        <v>160.85633975528</v>
+        <v>451.0545783809849</v>
       </c>
       <c r="S2">
-        <v>0.0002807247844404112</v>
+        <v>0.0006287778429180653</v>
       </c>
       <c r="T2">
-        <v>0.0002894413957445984</v>
+        <v>0.0006509067948059144</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H3">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I3">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J3">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.062472</v>
       </c>
       <c r="O3">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P3">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q3">
-        <v>3.159543716386667</v>
+        <v>3.01496754332</v>
       </c>
       <c r="R3">
-        <v>28.43589344748</v>
+        <v>27.13470788988</v>
       </c>
       <c r="S3">
-        <v>4.96260207745545E-05</v>
+        <v>3.782624966684036E-05</v>
       </c>
       <c r="T3">
-        <v>5.116692759020169E-05</v>
+        <v>3.915749132620073E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H4">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I4">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J4">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N4">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O4">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P4">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q4">
-        <v>8209.109217488884</v>
+        <v>12220.86361015221</v>
       </c>
       <c r="R4">
-        <v>73881.98295739995</v>
+        <v>109987.7724913698</v>
       </c>
       <c r="S4">
-        <v>0.1289380559777747</v>
+        <v>0.1533248472562272</v>
       </c>
       <c r="T4">
-        <v>0.1329416316453672</v>
+        <v>0.1587208996241014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H5">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I5">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J5">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N5">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O5">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P5">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q5">
-        <v>22.82172534367001</v>
+        <v>125.693771019055</v>
       </c>
       <c r="R5">
-        <v>136.93035206202</v>
+        <v>754.1626261143299</v>
       </c>
       <c r="S5">
-        <v>0.0003584541053007992</v>
+        <v>0.001576973514911503</v>
       </c>
       <c r="T5">
-        <v>0.0002463894943831668</v>
+        <v>0.001088315253308122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H6">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I6">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J6">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N6">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O6">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P6">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q6">
-        <v>8941.855462023383</v>
+        <v>6969.16383539897</v>
       </c>
       <c r="R6">
-        <v>80476.69915821044</v>
+        <v>62722.47451859073</v>
       </c>
       <c r="S6">
-        <v>0.1404470850078689</v>
+        <v>0.08743620865537677</v>
       </c>
       <c r="T6">
-        <v>0.1448080204032244</v>
+        <v>0.09051340305143135</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
         <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J7">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N7">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O7">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P7">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q7">
-        <v>9.688697673477334</v>
+        <v>28.470693443263</v>
       </c>
       <c r="R7">
-        <v>87.19827906129601</v>
+        <v>256.236240989367</v>
       </c>
       <c r="S7">
-        <v>0.0001521775152306587</v>
+        <v>0.0003571977286319456</v>
       </c>
       <c r="T7">
-        <v>0.0001569026849449996</v>
+        <v>0.0003697688003393425</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
         <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J8">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.062472</v>
       </c>
       <c r="O8">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P8">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q8">
         <v>1.712750489704</v>
@@ -948,10 +948,10 @@
         <v>15.414754407336</v>
       </c>
       <c r="S8">
-        <v>2.69016665105314E-05</v>
+        <v>2.148843286359395E-05</v>
       </c>
       <c r="T8">
-        <v>2.773697348520627E-05</v>
+        <v>2.224468803756277E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
         <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J9">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N9">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O9">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P9">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q9">
-        <v>4450.058962427413</v>
+        <v>6942.459523078321</v>
       </c>
       <c r="R9">
-        <v>40050.53066184672</v>
+        <v>62482.13570770489</v>
       </c>
       <c r="S9">
-        <v>0.06989576291413749</v>
+        <v>0.08710117221783362</v>
       </c>
       <c r="T9">
-        <v>0.07206605293091187</v>
+        <v>0.09016657547765373</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H10">
         <v>246.746613</v>
       </c>
       <c r="I10">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J10">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N10">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O10">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P10">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q10">
-        <v>12.371381682594</v>
+        <v>71.404439607521</v>
       </c>
       <c r="R10">
-        <v>74.22829009556402</v>
+        <v>428.426637645126</v>
       </c>
       <c r="S10">
-        <v>0.0001943136413040276</v>
+        <v>0.0008958511563081997</v>
       </c>
       <c r="T10">
-        <v>0.0001335647691703104</v>
+        <v>0.0006182529185714611</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H11">
         <v>246.746613</v>
       </c>
       <c r="I11">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J11">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N11">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O11">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P11">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q11">
-        <v>4847.271851948845</v>
+        <v>3959.060454350004</v>
       </c>
       <c r="R11">
-        <v>43625.44666753961</v>
+        <v>35631.54408915003</v>
       </c>
       <c r="S11">
-        <v>0.0761346685526563</v>
+        <v>0.04967098552160532</v>
       </c>
       <c r="T11">
-        <v>0.07849867896188861</v>
+        <v>0.05141908600130508</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H12">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I12">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J12">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N12">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O12">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P12">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q12">
-        <v>14.541411828944</v>
+        <v>56.72031569615434</v>
       </c>
       <c r="R12">
-        <v>130.872706460496</v>
+        <v>510.482841265389</v>
       </c>
       <c r="S12">
-        <v>0.0002283976644386502</v>
+        <v>0.0007116218638765689</v>
       </c>
       <c r="T12">
-        <v>0.000235489498769076</v>
+        <v>0.0007366663945727913</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H13">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I13">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J13">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.062472</v>
       </c>
       <c r="O13">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P13">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q13">
-        <v>2.570604540504</v>
+        <v>3.412201697101333</v>
       </c>
       <c r="R13">
-        <v>23.135440864536</v>
+        <v>30.709815273912</v>
       </c>
       <c r="S13">
-        <v>4.037572693442792E-05</v>
+        <v>4.281001087197185E-05</v>
       </c>
       <c r="T13">
-        <v>4.162940860885849E-05</v>
+        <v>4.431664899793966E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H14">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I14">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J14">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N14">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O14">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P14">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q14">
-        <v>6678.930669173764</v>
+        <v>13831.01176097117</v>
       </c>
       <c r="R14">
-        <v>60110.37602256387</v>
+        <v>124479.1058487406</v>
       </c>
       <c r="S14">
-        <v>0.1049039930738099</v>
+        <v>0.1735260152881761</v>
       </c>
       <c r="T14">
-        <v>0.1081613019491353</v>
+        <v>0.1796330193546387</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H15">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I15">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J15">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N15">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O15">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P15">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q15">
-        <v>18.567754098894</v>
+        <v>142.2544331319737</v>
       </c>
       <c r="R15">
-        <v>111.406524593364</v>
+        <v>853.526598791842</v>
       </c>
       <c r="S15">
-        <v>0.0002916382343024896</v>
+        <v>0.001784746146202134</v>
       </c>
       <c r="T15">
-        <v>0.0002004624749165335</v>
+        <v>0.001231705184537403</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H16">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I16">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J16">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N16">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O16">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P16">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q16">
-        <v>7275.092961047912</v>
+        <v>7887.379324932801</v>
       </c>
       <c r="R16">
-        <v>65475.83664943121</v>
+        <v>70986.41392439521</v>
       </c>
       <c r="S16">
-        <v>0.1142677382652791</v>
+        <v>0.09895628237292668</v>
       </c>
       <c r="T16">
-        <v>0.1178157949894209</v>
+        <v>0.1024389095619961</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H17">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I17">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J17">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N17">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O17">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P17">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q17">
-        <v>5.893672993</v>
+        <v>19.7389627298535</v>
       </c>
       <c r="R17">
-        <v>35.362037958</v>
+        <v>118.433776379121</v>
       </c>
       <c r="S17">
-        <v>9.257018248303769E-05</v>
+        <v>0.0002476480829912032</v>
       </c>
       <c r="T17">
-        <v>6.362968123300856E-05</v>
+        <v>0.0001709091393249981</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H18">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I18">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J18">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.062472</v>
       </c>
       <c r="O18">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P18">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q18">
-        <v>1.0418728755</v>
+        <v>1.187463809028</v>
       </c>
       <c r="R18">
-        <v>6.251237253</v>
+        <v>7.124782854168</v>
       </c>
       <c r="S18">
-        <v>1.636438979965684E-05</v>
+        <v>1.489810482708171E-05</v>
       </c>
       <c r="T18">
-        <v>1.124834021706352E-05</v>
+        <v>1.028161511615893E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H19">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I19">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J19">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N19">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O19">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P19">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q19">
-        <v>2706.988411446938</v>
+        <v>4813.263507355366</v>
       </c>
       <c r="R19">
-        <v>16241.93046868163</v>
+        <v>28879.5810441322</v>
       </c>
       <c r="S19">
-        <v>0.04251786814856143</v>
+        <v>0.06038794929813002</v>
       </c>
       <c r="T19">
-        <v>0.02922537608150206</v>
+        <v>0.04167547883062612</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H20">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I20">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J20">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N20">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O20">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P20">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q20">
-        <v>7.525560252375001</v>
+        <v>49.5052772412345</v>
       </c>
       <c r="R20">
-        <v>30.10224100950001</v>
+        <v>198.021108964938</v>
       </c>
       <c r="S20">
-        <v>0.0001182017540974637</v>
+        <v>0.0006211008741709476</v>
       </c>
       <c r="T20">
-        <v>5.416531711516815E-05</v>
+        <v>0.0002857598426401744</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H21">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I21">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J21">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N21">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O21">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P21">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q21">
-        <v>2948.6145781765</v>
+        <v>2744.848730480909</v>
       </c>
       <c r="R21">
-        <v>17691.687469059</v>
+        <v>16469.09238288545</v>
       </c>
       <c r="S21">
-        <v>0.04631301904570121</v>
+        <v>0.0344372972130071</v>
       </c>
       <c r="T21">
-        <v>0.03183403726525224</v>
+        <v>0.02376617963791493</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H22">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I22">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J22">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N22">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O22">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P22">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q22">
-        <v>18.18119107006222</v>
+        <v>51.19244024723334</v>
       </c>
       <c r="R22">
-        <v>163.63071963056</v>
+        <v>460.7319622251</v>
       </c>
       <c r="S22">
-        <v>0.000285566602883058</v>
+        <v>0.0006422682825017494</v>
       </c>
       <c r="T22">
-        <v>0.0002944335544910205</v>
+        <v>0.0006648720114382105</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H23">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I23">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J23">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.062472</v>
       </c>
       <c r="O23">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P23">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q23">
-        <v>3.214038146106666</v>
+        <v>3.079653724533333</v>
       </c>
       <c r="R23">
-        <v>28.92634331496</v>
+        <v>27.7168835208</v>
       </c>
       <c r="S23">
-        <v>5.048194870090551E-05</v>
+        <v>3.863781251301138E-05</v>
       </c>
       <c r="T23">
-        <v>5.204943240413772E-05</v>
+        <v>3.999761598538593E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H24">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I24">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J24">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N24">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O24">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P24">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q24">
-        <v>8350.696346983597</v>
+        <v>12483.06245200084</v>
       </c>
       <c r="R24">
-        <v>75156.26712285238</v>
+        <v>112347.5620680076</v>
       </c>
       <c r="S24">
-        <v>0.1311619232385036</v>
+        <v>0.1566144345276051</v>
       </c>
       <c r="T24">
-        <v>0.1352345508301809</v>
+        <v>0.1621262592931219</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H25">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I25">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J25">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N25">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O25">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P25">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q25">
-        <v>23.21534449234</v>
+        <v>128.3905330679667</v>
       </c>
       <c r="R25">
-        <v>139.29206695404</v>
+        <v>770.3431984078001</v>
       </c>
       <c r="S25">
-        <v>0.0003646365651122745</v>
+        <v>0.00161080750917131</v>
       </c>
       <c r="T25">
-        <v>0.0002506391127428598</v>
+        <v>0.001111665076044589</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H26">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I26">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J26">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N26">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O26">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P26">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q26">
-        <v>9096.080678631208</v>
+        <v>7118.68736700741</v>
       </c>
       <c r="R26">
-        <v>81864.72610768088</v>
+        <v>64068.18630306669</v>
       </c>
       <c r="S26">
-        <v>0.1428694549733944</v>
+        <v>0.08931215403668605</v>
       </c>
       <c r="T26">
-        <v>0.1473056058773005</v>
+        <v>0.09245536969216443</v>
       </c>
     </row>
   </sheetData>
